--- a/02- Casos Netlogistik/Formato seguimiento de casos.xlsx
+++ b/02- Casos Netlogistik/Formato seguimiento de casos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>FORMATO REVISION CASOS SOPORTE</t>
   </si>
@@ -67,24 +67,7 @@
     <t>Acciones a Realizar:</t>
   </si>
   <si>
-    <t>Alkosto</t>
-  </si>
-  <si>
     <t>Responsable</t>
-  </si>
-  <si>
-    <r>
-      <t>Actividad1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <r>
@@ -115,12 +98,74 @@
   <si>
     <t>Razón de Cierre:</t>
   </si>
+  <si>
+    <t>WMS</t>
+  </si>
+  <si>
+    <t>Ordenes parciales desachadas estan pendientes</t>
+  </si>
+  <si>
+    <t>BluLogistics reporta algunas ordenes las cuales tienen en algunas de sus lineas habilitadas el prtflg, para esas lineas no se llevo la cantidad completa y se despacho, una vez despachado el camion se completo el envio. Pero la orden sigue apareciendo para ser planeada por las cantidades faltantes  de las lineas con el prtflg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">29 de Julio de 2014
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cuando se despacha un envio el estado de este cambia a completado, pero la orden no es completada, toda orden se completa cuando la cantidad surtida es igual a la cantidad solicitada. El motivo por el cual siguen apareciendo las ordenes para ser planeadas es porque aun faltan cantidades para completar las lineas. el comando encargado de realizar dicha busqueda es: list_order_lines_available_for_wave_planning.mcmd, este se encarga de buscar las ordenes que aun tienen cantidades pendientes porser surtidas, este es el motivo que las ordenes asociadas a los envios completados sigan apareciendo con la posibilidad de ser planeadas por la cantidad faltante.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>El sistema esta funcionando adecuadamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BluLogistics </t>
+  </si>
+  <si>
+    <t>BluLogistics</t>
+  </si>
+  <si>
+    <r>
+      <t>Actividad1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> El equipo de BluLogistics debe validar lo mencionado en el seguimiento por parte del equipo de netlogistik</t>
+    </r>
+  </si>
+  <si>
+    <t>El sistema funciona de manera correcta.</t>
+  </si>
+  <si>
+    <t>No se presenta error en el sistema</t>
+  </si>
+  <si>
+    <t>17-06-2014</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,12 +218,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F497D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -397,130 +436,121 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,102 +835,124 @@
   <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="2:10" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="2">
+        <v>499762</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="J4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="1" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
+      <c r="C6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="2:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="C7" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="C8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -911,7 +963,7 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -922,7 +974,7 @@
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -932,150 +984,156 @@
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
+    <row r="12" spans="2:10" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="20"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
+      <c r="C13" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="2:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="19"/>
+      <c r="C15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="19"/>
+      <c r="C16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="23"/>
-      <c r="C15" s="34" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="19"/>
+      <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="23"/>
-      <c r="C16" s="34" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="19"/>
+      <c r="C18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="23"/>
-      <c r="C17" s="1" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="33"/>
+      <c r="C19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="23"/>
-      <c r="C18" s="34" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="40"/>
-      <c r="C19" s="34" t="s">
+      <c r="C20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-    </row>
-    <row r="21" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
+      <c r="C21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="C8:J12"/>
     <mergeCell ref="C13:J13"/>
@@ -1086,14 +1144,17 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/02- Casos Netlogistik/Formato seguimiento de casos.xlsx
+++ b/02- Casos Netlogistik/Formato seguimiento de casos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>FORMATO REVISION CASOS SOPORTE</t>
   </si>
@@ -102,15 +102,20 @@
     <t>WMS</t>
   </si>
   <si>
-    <t>Ordenes parciales desachadas estan pendientes</t>
-  </si>
-  <si>
-    <t>BluLogistics reporta algunas ordenes las cuales tienen en algunas de sus lineas habilitadas el prtflg, para esas lineas no se llevo la cantidad completa y se despacho, una vez despachado el camion se completo el envio. Pero la orden sigue apareciendo para ser planeada por las cantidades faltantes  de las lineas con el prtflg</t>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>L00000073170</t>
+  </si>
+  <si>
+    <t>Dispositivo de radiolocalizador a rdt no permite actualizacion</t>
+  </si>
+  <si>
+    <t>Cuando se cometio el error operativo de pasar un dispositivo de radiolocalizador a RDT el sistema crea una ubicación con la referencia del dispositivo, al existir dicha ubicación el sistema no permite la actualizacion del dispositivo a rdt.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">29 de Julio de 2014
-</t>
+      <t>09 de septiembre de 2014</t>
     </r>
     <r>
       <rPr>
@@ -119,17 +124,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Cuando se despacha un envio el estado de este cambia a completado, pero la orden no es completada, toda orden se completa cuando la cantidad surtida es igual a la cantidad solicitada. El motivo por el cual siguen apareciendo las ordenes para ser planeadas es porque aun faltan cantidades para completar las lineas. el comando encargado de realizar dicha busqueda es: list_order_lines_available_for_wave_planning.mcmd, este se encarga de buscar las ordenes que aun tienen cantidades pendientes porser surtidas, este es el motivo que las ordenes asociadas a los envios completados sigan apareciendo con la posibilidad de ser planeadas por la cantidad faltante.</t>
+      <t xml:space="preserve">
+Actualizar el dispositivo de radiolocalizador a radiofrecuencia</t>
     </r>
   </si>
   <si>
-    <t>Cerrado</t>
-  </si>
-  <si>
-    <t>El sistema esta funcionando adecuadamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BluLogistics </t>
+    <t>Eliminar la ubicación asociada a la RDT, actualizar el dispositivo</t>
   </si>
   <si>
     <t>BluLogistics</t>
@@ -145,27 +145,21 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> El equipo de BluLogistics debe validar lo mencionado en el seguimiento por parte del equipo de netlogistik</t>
+      <t xml:space="preserve"> Validar lo mencionado en el diagnostico y seguimiento, aasi como aplicar la configuracion deseada a la radiofrecuencia reportada</t>
     </r>
   </si>
   <si>
-    <t>El sistema funciona de manera correcta.</t>
-  </si>
-  <si>
-    <t>No se presenta error en el sistema</t>
-  </si>
-  <si>
-    <t>17-06-2014</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t>Actualizacion del dispositivo realizada de manera correcta</t>
+  </si>
+  <si>
+    <t>RDT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +212,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF262626"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -436,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -459,6 +459,94 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -466,90 +554,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -832,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J21"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B3" sqref="B3:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,58 +850,58 @@
     <col min="10" max="10" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="2:10" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="2:13" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>499762</v>
+        <v>521342</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="8">
+        <v>41707</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="5"/>
       <c r="I4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="11" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>7</v>
@@ -906,234 +910,237 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" spans="2:10" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="2:13" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="M7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="2:10" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="23"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="2:13" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="2:13" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="18" t="s">
+      <c r="C13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="11" t="s">
+      <c r="C14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="2:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="19"/>
-      <c r="C15" s="15" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="2:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="23"/>
+      <c r="C15" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="8" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="19"/>
-      <c r="C16" s="15" t="s">
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="23"/>
+      <c r="C16" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="19"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="19"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="33"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+    </row>
+    <row r="20" spans="2:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+    </row>
+    <row r="21" spans="2:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
+      <c r="C21" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="C8:J12"/>
     <mergeCell ref="C13:J13"/>
@@ -1144,14 +1151,12 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
